--- a/app/static/sheet3.xlsx
+++ b/app/static/sheet3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dada/workspace/fix_grid/app/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426E4DBF-080C-C14E-886B-63E499B74A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC1A1A5-B67C-8B45-814C-1F34B3486377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16760" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>林園區立汯水泥公司大型鐵皮掛在電線桿上面、小型工廠全部沒電、聯絡電話許先生0932725822</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,10 @@
   <si>
     <t>已復電
 (確認請回復"是")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -613,13 +617,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,22 +736,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1037,11 +1066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1054,15 +1083,15 @@
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" customWidth="1"/>
-    <col min="13" max="14" width="16.6640625" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="9" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="15" width="16.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32.25" customHeight="1">
+    <row r="1" spans="1:16" ht="32.25" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>25</v>
       </c>
@@ -1076,8 +1105,9 @@
       <c r="M1" s="24"/>
       <c r="N1" s="24"/>
       <c r="O1" s="24"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" thickBot="1">
+      <c r="P1" s="24"/>
+    </row>
+    <row r="2" spans="1:16" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="27" t="s">
         <v>21</v>
       </c>
@@ -1095,8 +1125,9 @@
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
-    </row>
-    <row r="3" spans="1:15" ht="26.25" customHeight="1">
+      <c r="P2" s="28"/>
+    </row>
+    <row r="3" spans="1:16" ht="26.25" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>24</v>
       </c>
@@ -1108,16 +1139,17 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="25" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="25"/>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
-      <c r="O3" s="26"/>
-    </row>
-    <row r="4" spans="1:15" ht="42">
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
+    </row>
+    <row r="4" spans="1:16" ht="42">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
@@ -1145,26 +1177,29 @@
       <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="31.5" customHeight="1">
+    <row r="5" spans="1:16" ht="31.5" customHeight="1">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -1176,14 +1211,15 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J5" s="31"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" ht="31.5" customHeight="1">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -1195,14 +1231,15 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="13"/>
-    </row>
-    <row r="7" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J6" s="31"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" ht="31.5" customHeight="1">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -1214,14 +1251,15 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="13"/>
-    </row>
-    <row r="8" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J7" s="31"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" ht="31.5" customHeight="1">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -1233,14 +1271,15 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="13"/>
-    </row>
-    <row r="9" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J8" s="31"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" ht="31.5" customHeight="1">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -1252,14 +1291,15 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="13"/>
-    </row>
-    <row r="10" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J9" s="31"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" ht="31.5" customHeight="1">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -1271,14 +1311,15 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="13"/>
-    </row>
-    <row r="11" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J10" s="31"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" ht="31.5" customHeight="1">
       <c r="A11" s="7">
         <v>7</v>
       </c>
@@ -1290,14 +1331,15 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="13"/>
-    </row>
-    <row r="12" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J11" s="31"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" ht="31.5" customHeight="1">
       <c r="A12" s="7">
         <v>8</v>
       </c>
@@ -1309,14 +1351,15 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="13"/>
-    </row>
-    <row r="13" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J12" s="31"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:16" ht="31.5" customHeight="1">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -1328,14 +1371,15 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J13" s="31"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" ht="31.5" customHeight="1">
       <c r="A14" s="7">
         <v>10</v>
       </c>
@@ -1347,14 +1391,15 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="13"/>
-    </row>
-    <row r="15" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J14" s="31"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" ht="31.5" customHeight="1">
       <c r="A15" s="7">
         <v>11</v>
       </c>
@@ -1366,14 +1411,15 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="13"/>
-    </row>
-    <row r="16" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J15" s="31"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" ht="31.5" customHeight="1">
       <c r="A16" s="7">
         <v>12</v>
       </c>
@@ -1385,14 +1431,15 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="13"/>
-    </row>
-    <row r="17" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J16" s="31"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="1:16" ht="31.5" customHeight="1">
       <c r="A17" s="7">
         <v>13</v>
       </c>
@@ -1404,14 +1451,15 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="13"/>
-    </row>
-    <row r="18" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J17" s="31"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="1:16" ht="31.5" customHeight="1">
       <c r="A18" s="7">
         <v>14</v>
       </c>
@@ -1423,14 +1471,15 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="13"/>
-    </row>
-    <row r="19" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J18" s="31"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="1:16" ht="31.5" customHeight="1">
       <c r="A19" s="7">
         <v>15</v>
       </c>
@@ -1442,14 +1491,15 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="13"/>
-    </row>
-    <row r="20" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J19" s="31"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="1:16" ht="31.5" customHeight="1">
       <c r="A20" s="7">
         <v>16</v>
       </c>
@@ -1461,14 +1511,15 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="13"/>
-    </row>
-    <row r="21" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J20" s="31"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:16" ht="31.5" customHeight="1">
       <c r="A21" s="7">
         <v>17</v>
       </c>
@@ -1480,14 +1531,15 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="13"/>
-    </row>
-    <row r="22" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J21" s="31"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="13"/>
+    </row>
+    <row r="22" spans="1:16" ht="31.5" customHeight="1">
       <c r="A22" s="7">
         <v>18</v>
       </c>
@@ -1499,14 +1551,15 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="13"/>
-    </row>
-    <row r="23" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J22" s="31"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:16" ht="31.5" customHeight="1">
       <c r="A23" s="7">
         <v>19</v>
       </c>
@@ -1518,14 +1571,15 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="13"/>
-    </row>
-    <row r="24" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J23" s="31"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="13"/>
+    </row>
+    <row r="24" spans="1:16" ht="31.5" customHeight="1">
       <c r="A24" s="7">
         <v>20</v>
       </c>
@@ -1537,14 +1591,15 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="13"/>
-    </row>
-    <row r="25" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J24" s="31"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="13"/>
+    </row>
+    <row r="25" spans="1:16" ht="31.5" customHeight="1">
       <c r="A25" s="7">
         <v>21</v>
       </c>
@@ -1556,14 +1611,15 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="13"/>
-    </row>
-    <row r="26" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J25" s="31"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="1:16" ht="31.5" customHeight="1">
       <c r="A26" s="7">
         <v>22</v>
       </c>
@@ -1575,14 +1631,15 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="13"/>
-    </row>
-    <row r="27" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J26" s="31"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="1:16" ht="31.5" customHeight="1">
       <c r="A27" s="7">
         <v>23</v>
       </c>
@@ -1594,14 +1651,15 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="13"/>
-    </row>
-    <row r="28" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J27" s="31"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" spans="1:16" ht="31.5" customHeight="1">
       <c r="A28" s="7">
         <v>24</v>
       </c>
@@ -1613,14 +1671,15 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="13"/>
-    </row>
-    <row r="29" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J28" s="31"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="13"/>
+    </row>
+    <row r="29" spans="1:16" ht="31.5" customHeight="1">
       <c r="A29" s="7">
         <v>25</v>
       </c>
@@ -1632,14 +1691,15 @@
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="13"/>
-    </row>
-    <row r="30" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J29" s="31"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="13"/>
+    </row>
+    <row r="30" spans="1:16" ht="31.5" customHeight="1">
       <c r="A30" s="7">
         <v>26</v>
       </c>
@@ -1651,14 +1711,15 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="13"/>
-    </row>
-    <row r="31" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J30" s="31"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="13"/>
+    </row>
+    <row r="31" spans="1:16" ht="31.5" customHeight="1">
       <c r="A31" s="7">
         <v>27</v>
       </c>
@@ -1670,14 +1731,15 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="13"/>
-    </row>
-    <row r="32" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J31" s="31"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="13"/>
+    </row>
+    <row r="32" spans="1:16" ht="31.5" customHeight="1">
       <c r="A32" s="7">
         <v>28</v>
       </c>
@@ -1689,14 +1751,15 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="13"/>
-    </row>
-    <row r="33" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J32" s="31"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="13"/>
+    </row>
+    <row r="33" spans="1:16" ht="31.5" customHeight="1">
       <c r="A33" s="7">
         <v>29</v>
       </c>
@@ -1708,14 +1771,15 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="13"/>
-    </row>
-    <row r="34" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J33" s="31"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="13"/>
+    </row>
+    <row r="34" spans="1:16" ht="31.5" customHeight="1">
       <c r="A34" s="7">
         <v>30</v>
       </c>
@@ -1727,14 +1791,15 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="13"/>
-    </row>
-    <row r="35" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J34" s="31"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="13"/>
+    </row>
+    <row r="35" spans="1:16" ht="31.5" customHeight="1">
       <c r="A35" s="7">
         <v>31</v>
       </c>
@@ -1746,14 +1811,15 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="13"/>
-    </row>
-    <row r="36" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J35" s="31"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="13"/>
+    </row>
+    <row r="36" spans="1:16" ht="31.5" customHeight="1">
       <c r="A36" s="7">
         <v>32</v>
       </c>
@@ -1765,14 +1831,15 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="13"/>
-    </row>
-    <row r="37" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J36" s="31"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="13"/>
+    </row>
+    <row r="37" spans="1:16" ht="31.5" customHeight="1">
       <c r="A37" s="7">
         <v>33</v>
       </c>
@@ -1784,14 +1851,15 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="13"/>
-    </row>
-    <row r="38" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J37" s="31"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="13"/>
+    </row>
+    <row r="38" spans="1:16" ht="31.5" customHeight="1">
       <c r="A38" s="7">
         <v>34</v>
       </c>
@@ -1803,14 +1871,15 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="13"/>
-    </row>
-    <row r="39" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J38" s="31"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="13"/>
+    </row>
+    <row r="39" spans="1:16" ht="31.5" customHeight="1">
       <c r="A39" s="7">
         <v>35</v>
       </c>
@@ -1822,14 +1891,15 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="13"/>
-    </row>
-    <row r="40" spans="1:15" ht="31.5" customHeight="1">
+      <c r="J39" s="31"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="13"/>
+    </row>
+    <row r="40" spans="1:16" ht="31.5" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1839,25 +1909,26 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="13"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="A2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="否">
-      <formula>NOT(ISERROR(SEARCH("否",K1)))</formula>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="否">
+      <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/static/sheet3.xlsx
+++ b/app/static/sheet3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dada/workspace/fix_grid/app/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC1A1A5-B67C-8B45-814C-1F34B3486377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A55C91-B1D3-DD40-A488-1CF584CBEF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16760" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,6 +713,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -736,15 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,11 +1066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <pane ySplit="4" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1092,62 +1092,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="32.25" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="I1" s="24" t="s">
+      <c r="B1" s="26"/>
+      <c r="I1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
     </row>
     <row r="3" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="29"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="29"/>
     </row>
     <row r="4" spans="1:16" ht="42">
       <c r="A4" s="10" t="s">
@@ -1177,7 +1177,7 @@
       <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="22" t="s">
         <v>31</v>
       </c>
       <c r="K4" s="20" t="s">
@@ -1200,9 +1200,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1211,7 +1209,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
-      <c r="J5" s="31"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
       <c r="M5" s="15"/>
@@ -1220,9 +1218,7 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1231,7 +1227,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="31"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="18"/>
       <c r="L6" s="19"/>
       <c r="M6" s="15"/>
@@ -1240,9 +1236,7 @@
       <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1251,7 +1245,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="31"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="18"/>
       <c r="L7" s="19"/>
       <c r="M7" s="15"/>
@@ -1260,9 +1254,7 @@
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1271,7 +1263,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="31"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="18"/>
       <c r="L8" s="19"/>
       <c r="M8" s="15"/>
@@ -1280,9 +1272,7 @@
       <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1291,7 +1281,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="31"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="18"/>
       <c r="L9" s="19"/>
       <c r="M9" s="15"/>
@@ -1300,9 +1290,7 @@
       <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
+      <c r="A10" s="7"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1311,7 +1299,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="31"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="18"/>
       <c r="L10" s="19"/>
       <c r="M10" s="15"/>
@@ -1320,9 +1308,7 @@
       <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
+      <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1331,7 +1317,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="31"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="18"/>
       <c r="L11" s="19"/>
       <c r="M11" s="15"/>
@@ -1340,9 +1326,7 @@
       <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
+      <c r="A12" s="7"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1351,7 +1335,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="31"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="18"/>
       <c r="L12" s="19"/>
       <c r="M12" s="15"/>
@@ -1360,9 +1344,7 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
+      <c r="A13" s="7"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1371,7 +1353,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="31"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="18"/>
       <c r="L13" s="19"/>
       <c r="M13" s="15"/>
@@ -1380,9 +1362,7 @@
       <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
+      <c r="A14" s="7"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1391,7 +1371,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="31"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="18"/>
       <c r="L14" s="19"/>
       <c r="M14" s="15"/>
@@ -1400,9 +1380,7 @@
       <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
+      <c r="A15" s="7"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1411,7 +1389,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="31"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="18"/>
       <c r="L15" s="19"/>
       <c r="M15" s="15"/>
@@ -1420,9 +1398,7 @@
       <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
+      <c r="A16" s="7"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1431,7 +1407,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="31"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="18"/>
       <c r="L16" s="19"/>
       <c r="M16" s="15"/>
@@ -1440,9 +1416,7 @@
       <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A17" s="7">
-        <v>13</v>
-      </c>
+      <c r="A17" s="7"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1451,7 +1425,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="31"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="18"/>
       <c r="L17" s="19"/>
       <c r="M17" s="15"/>
@@ -1460,9 +1434,7 @@
       <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A18" s="7">
-        <v>14</v>
-      </c>
+      <c r="A18" s="7"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1471,7 +1443,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="31"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="18"/>
       <c r="L18" s="19"/>
       <c r="M18" s="15"/>
@@ -1480,9 +1452,7 @@
       <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A19" s="7">
-        <v>15</v>
-      </c>
+      <c r="A19" s="7"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1491,7 +1461,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
-      <c r="J19" s="31"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="18"/>
       <c r="L19" s="19"/>
       <c r="M19" s="15"/>
@@ -1500,9 +1470,7 @@
       <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A20" s="7">
-        <v>16</v>
-      </c>
+      <c r="A20" s="7"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1511,7 +1479,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="31"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="18"/>
       <c r="L20" s="19"/>
       <c r="M20" s="15"/>
@@ -1520,9 +1488,7 @@
       <c r="P20" s="13"/>
     </row>
     <row r="21" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A21" s="7">
-        <v>17</v>
-      </c>
+      <c r="A21" s="7"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1531,7 +1497,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="31"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="18"/>
       <c r="L21" s="19"/>
       <c r="M21" s="15"/>
@@ -1540,9 +1506,7 @@
       <c r="P21" s="13"/>
     </row>
     <row r="22" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A22" s="7">
-        <v>18</v>
-      </c>
+      <c r="A22" s="7"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1551,7 +1515,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="31"/>
+      <c r="J22" s="23"/>
       <c r="K22" s="18"/>
       <c r="L22" s="19"/>
       <c r="M22" s="15"/>
@@ -1560,9 +1524,7 @@
       <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A23" s="7">
-        <v>19</v>
-      </c>
+      <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1571,7 +1533,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="31"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="18"/>
       <c r="L23" s="19"/>
       <c r="M23" s="15"/>
@@ -1580,9 +1542,7 @@
       <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A24" s="7">
-        <v>20</v>
-      </c>
+      <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1591,7 +1551,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="31"/>
+      <c r="J24" s="23"/>
       <c r="K24" s="18"/>
       <c r="L24" s="19"/>
       <c r="M24" s="15"/>
@@ -1600,9 +1560,7 @@
       <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A25" s="7">
-        <v>21</v>
-      </c>
+      <c r="A25" s="7"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1611,7 +1569,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="31"/>
+      <c r="J25" s="23"/>
       <c r="K25" s="18"/>
       <c r="L25" s="19"/>
       <c r="M25" s="15"/>
@@ -1620,9 +1578,7 @@
       <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A26" s="7">
-        <v>22</v>
-      </c>
+      <c r="A26" s="7"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1631,7 +1587,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="31"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="18"/>
       <c r="L26" s="19"/>
       <c r="M26" s="15"/>
@@ -1640,9 +1596,7 @@
       <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A27" s="7">
-        <v>23</v>
-      </c>
+      <c r="A27" s="7"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1651,7 +1605,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="31"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="18"/>
       <c r="L27" s="19"/>
       <c r="M27" s="15"/>
@@ -1660,9 +1614,7 @@
       <c r="P27" s="13"/>
     </row>
     <row r="28" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A28" s="7">
-        <v>24</v>
-      </c>
+      <c r="A28" s="7"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1671,7 +1623,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="31"/>
+      <c r="J28" s="23"/>
       <c r="K28" s="18"/>
       <c r="L28" s="19"/>
       <c r="M28" s="15"/>
@@ -1680,9 +1632,7 @@
       <c r="P28" s="13"/>
     </row>
     <row r="29" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A29" s="7">
-        <v>25</v>
-      </c>
+      <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1691,7 +1641,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="31"/>
+      <c r="J29" s="23"/>
       <c r="K29" s="18"/>
       <c r="L29" s="19"/>
       <c r="M29" s="15"/>
@@ -1700,9 +1650,7 @@
       <c r="P29" s="13"/>
     </row>
     <row r="30" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A30" s="7">
-        <v>26</v>
-      </c>
+      <c r="A30" s="7"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1711,7 +1659,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="31"/>
+      <c r="J30" s="23"/>
       <c r="K30" s="18"/>
       <c r="L30" s="19"/>
       <c r="M30" s="15"/>
@@ -1720,9 +1668,7 @@
       <c r="P30" s="13"/>
     </row>
     <row r="31" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A31" s="7">
-        <v>27</v>
-      </c>
+      <c r="A31" s="7"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1731,7 +1677,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="31"/>
+      <c r="J31" s="23"/>
       <c r="K31" s="18"/>
       <c r="L31" s="19"/>
       <c r="M31" s="15"/>
@@ -1740,9 +1686,7 @@
       <c r="P31" s="13"/>
     </row>
     <row r="32" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A32" s="7">
-        <v>28</v>
-      </c>
+      <c r="A32" s="7"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1751,7 +1695,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="31"/>
+      <c r="J32" s="23"/>
       <c r="K32" s="18"/>
       <c r="L32" s="19"/>
       <c r="M32" s="15"/>
@@ -1760,9 +1704,7 @@
       <c r="P32" s="13"/>
     </row>
     <row r="33" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A33" s="7">
-        <v>29</v>
-      </c>
+      <c r="A33" s="7"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1771,7 +1713,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="31"/>
+      <c r="J33" s="23"/>
       <c r="K33" s="18"/>
       <c r="L33" s="19"/>
       <c r="M33" s="15"/>
@@ -1780,9 +1722,7 @@
       <c r="P33" s="13"/>
     </row>
     <row r="34" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A34" s="7">
-        <v>30</v>
-      </c>
+      <c r="A34" s="7"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1791,7 +1731,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="31"/>
+      <c r="J34" s="23"/>
       <c r="K34" s="18"/>
       <c r="L34" s="19"/>
       <c r="M34" s="15"/>
@@ -1800,9 +1740,7 @@
       <c r="P34" s="13"/>
     </row>
     <row r="35" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A35" s="7">
-        <v>31</v>
-      </c>
+      <c r="A35" s="7"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1811,7 +1749,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="31"/>
+      <c r="J35" s="23"/>
       <c r="K35" s="18"/>
       <c r="L35" s="19"/>
       <c r="M35" s="15"/>
@@ -1820,9 +1758,7 @@
       <c r="P35" s="13"/>
     </row>
     <row r="36" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A36" s="7">
-        <v>32</v>
-      </c>
+      <c r="A36" s="7"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1831,7 +1767,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="31"/>
+      <c r="J36" s="23"/>
       <c r="K36" s="18"/>
       <c r="L36" s="19"/>
       <c r="M36" s="15"/>
@@ -1840,9 +1776,7 @@
       <c r="P36" s="13"/>
     </row>
     <row r="37" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A37" s="7">
-        <v>33</v>
-      </c>
+      <c r="A37" s="7"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1851,7 +1785,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="31"/>
+      <c r="J37" s="23"/>
       <c r="K37" s="18"/>
       <c r="L37" s="19"/>
       <c r="M37" s="15"/>
@@ -1860,9 +1794,7 @@
       <c r="P37" s="13"/>
     </row>
     <row r="38" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A38" s="7">
-        <v>34</v>
-      </c>
+      <c r="A38" s="7"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1871,7 +1803,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="31"/>
+      <c r="J38" s="23"/>
       <c r="K38" s="18"/>
       <c r="L38" s="19"/>
       <c r="M38" s="15"/>
@@ -1880,9 +1812,7 @@
       <c r="P38" s="13"/>
     </row>
     <row r="39" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A39" s="7">
-        <v>35</v>
-      </c>
+      <c r="A39" s="7"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1891,7 +1821,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="31"/>
+      <c r="J39" s="23"/>
       <c r="K39" s="18"/>
       <c r="L39" s="19"/>
       <c r="M39" s="15"/>
@@ -1909,13 +1839,1057 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="31"/>
+      <c r="J40" s="23"/>
       <c r="K40" s="18"/>
       <c r="L40" s="19"/>
       <c r="M40" s="15"/>
       <c r="N40" s="4"/>
       <c r="O40" s="5"/>
       <c r="P40" s="13"/>
+    </row>
+    <row r="41" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="13"/>
+    </row>
+    <row r="42" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="13"/>
+    </row>
+    <row r="43" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A43" s="7"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="13"/>
+    </row>
+    <row r="44" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="13"/>
+    </row>
+    <row r="45" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="13"/>
+    </row>
+    <row r="46" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="13"/>
+    </row>
+    <row r="47" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="13"/>
+    </row>
+    <row r="48" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A48" s="7"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="13"/>
+    </row>
+    <row r="49" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="13"/>
+    </row>
+    <row r="50" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A50" s="7"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="13"/>
+    </row>
+    <row r="51" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A51" s="7"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="13"/>
+    </row>
+    <row r="52" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="13"/>
+    </row>
+    <row r="53" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A53" s="7"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="13"/>
+    </row>
+    <row r="54" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="13"/>
+    </row>
+    <row r="55" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A55" s="7"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="13"/>
+    </row>
+    <row r="56" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A56" s="7"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="13"/>
+    </row>
+    <row r="57" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A57" s="7"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="13"/>
+    </row>
+    <row r="58" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A58" s="7"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="13"/>
+    </row>
+    <row r="59" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A59" s="7"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="13"/>
+    </row>
+    <row r="60" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A60" s="7"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="13"/>
+    </row>
+    <row r="61" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A61" s="7"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="13"/>
+    </row>
+    <row r="62" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A62" s="7"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="13"/>
+    </row>
+    <row r="63" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A63" s="7"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="13"/>
+    </row>
+    <row r="64" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A64" s="7"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="13"/>
+    </row>
+    <row r="65" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A65" s="7"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="13"/>
+    </row>
+    <row r="66" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A66" s="7"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="13"/>
+    </row>
+    <row r="67" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A67" s="7"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="13"/>
+    </row>
+    <row r="68" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A68" s="7"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="13"/>
+    </row>
+    <row r="69" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A69" s="7"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="13"/>
+    </row>
+    <row r="70" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A70" s="7"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="13"/>
+    </row>
+    <row r="71" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A71" s="7"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="13"/>
+    </row>
+    <row r="72" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A72" s="7"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="13"/>
+    </row>
+    <row r="73" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A73" s="7"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="13"/>
+    </row>
+    <row r="74" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A74" s="7"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="13"/>
+    </row>
+    <row r="75" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A75" s="7"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="13"/>
+    </row>
+    <row r="76" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A76" s="7"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="13"/>
+    </row>
+    <row r="77" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A77" s="7"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="13"/>
+    </row>
+    <row r="78" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A78" s="7"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="13"/>
+    </row>
+    <row r="79" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A79" s="7"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="13"/>
+    </row>
+    <row r="80" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A80" s="7"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="13"/>
+    </row>
+    <row r="81" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A81" s="7"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="13"/>
+    </row>
+    <row r="82" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A82" s="7"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="13"/>
+    </row>
+    <row r="83" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A83" s="7"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="13"/>
+    </row>
+    <row r="84" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A84" s="7"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="13"/>
+    </row>
+    <row r="85" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A85" s="7"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="13"/>
+    </row>
+    <row r="86" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A86" s="7"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="13"/>
+    </row>
+    <row r="87" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A87" s="7"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="13"/>
+    </row>
+    <row r="88" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A88" s="7"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="13"/>
+    </row>
+    <row r="89" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A89" s="7"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="13"/>
+    </row>
+    <row r="90" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A90" s="7"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="13"/>
+    </row>
+    <row r="91" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A91" s="7"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="13"/>
+    </row>
+    <row r="92" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A92" s="7"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="13"/>
+    </row>
+    <row r="93" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A93" s="7"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="13"/>
+    </row>
+    <row r="94" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A94" s="7"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="13"/>
+    </row>
+    <row r="95" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A95" s="7"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="13"/>
+    </row>
+    <row r="96" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A96" s="7"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="13"/>
+    </row>
+    <row r="97" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A97" s="7"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="13"/>
+    </row>
+    <row r="98" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A98" s="7"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
